--- a/API/Model/GenerateExcel/Templates/Certification Count.xlsx
+++ b/API/Model/GenerateExcel/Templates/Certification Count.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GC-FaMS-API\API\Model\GenerateExcel\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF17E0E-D503-4041-912C-7743B621F62A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716FC218-C60A-439A-B182-C968025D528A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
+    <workbookView xWindow="29625" yWindow="-120" windowWidth="28095" windowHeight="16440" xr2:uid="{9BFB484B-CCF6-4471-8DB9-57ECD0265C47}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -171,6 +171,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1315265</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92EA80AB-B9EC-820A-429A-C689A023FF44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="1869447" cy="1870364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -499,19 +554,19 @@
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="8.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -520,7 +575,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -531,7 +586,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -540,7 +595,7 @@
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -549,7 +604,7 @@
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
-    <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -572,7 +627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -581,7 +636,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -590,7 +645,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -599,7 +654,7 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -608,7 +663,7 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -617,7 +672,7 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -626,7 +681,7 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -635,7 +690,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -644,7 +699,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -653,7 +708,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -662,7 +717,7 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -671,7 +726,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -680,7 +735,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -689,7 +744,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -698,7 +753,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -707,7 +762,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -716,7 +771,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -725,7 +780,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -734,7 +789,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -743,7 +798,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -752,7 +807,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -761,7 +816,7 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -770,7 +825,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -779,7 +834,7 @@
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -788,7 +843,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -797,7 +852,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
@@ -806,7 +861,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -815,7 +870,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
@@ -824,7 +879,7 @@
       <c r="F36" s="5"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -833,7 +888,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -842,7 +897,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A39" s="5"/>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -851,7 +906,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -860,7 +915,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="5"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
@@ -869,7 +924,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -878,7 +933,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -887,7 +942,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -896,7 +951,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -905,7 +960,7 @@
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -914,7 +969,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -923,7 +978,7 @@
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A48" s="5"/>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -932,7 +987,7 @@
       <c r="F48" s="5"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -941,7 +996,7 @@
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -950,7 +1005,7 @@
       <c r="F50" s="5"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -959,7 +1014,7 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -968,7 +1023,7 @@
       <c r="F52" s="5"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A53" s="5"/>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -977,7 +1032,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A54" s="5"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -986,7 +1041,7 @@
       <c r="F54" s="5"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1002,6 +1057,7 @@
     <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="60" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>